--- a/public/projects/gsnc/storage/samples/benhvien-import.xlsx
+++ b/public/projects/gsnc/storage/samples/benhvien-import.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C8FA28-8235-4533-B814-FD570F9988C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F54927-7935-4562-81B0-A949069A6C4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="3015" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,12 +132,6 @@
     <t>stt</t>
   </si>
   <si>
-    <t>ten</t>
-  </si>
-  <si>
-    <t>Tên BV</t>
-  </si>
-  <si>
     <t>LOẠI MẪU</t>
   </si>
   <si>
@@ -455,9 +449,6 @@
     <t>NMN</t>
   </si>
   <si>
-    <t>BV Hoa Lâm</t>
-  </si>
-  <si>
     <t>BINH TAN</t>
   </si>
   <si>
@@ -468,6 +459,15 @@
   </si>
   <si>
     <t>donvilaymau</t>
+  </si>
+  <si>
+    <t>Mã BV</t>
+  </si>
+  <si>
+    <t>ma_bv</t>
+  </si>
+  <si>
+    <t>BV MSG</t>
   </si>
 </sst>
 </file>
@@ -526,6 +526,7 @@
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -735,31 +736,10 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -786,29 +766,1410 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{2165301F-8EB9-49B9-AC84-718302C70EE4}"/>
   </cellStyles>
-  <dxfs count="76">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="40"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="40"/>
+  <dxfs count="212">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1950,7 +3311,7 @@
   <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1981,229 +3342,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="28" t="s">
+      <c r="B1" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="34" t="s">
+      <c r="G1" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="K1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="L1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="34" t="s">
-        <v>42</v>
-      </c>
       <c r="M1" s="19"/>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="38" t="s">
+      <c r="O1" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="30" t="s">
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" s="30" t="s">
+      <c r="AI1" s="25" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="57">
-      <c r="A2" s="26"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
       <c r="M2" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="28"/>
+        <v>32</v>
+      </c>
+      <c r="N2" s="26"/>
       <c r="O2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="S2" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="V2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="W2" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="X2" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD2" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD2" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="AE2" s="40" t="s">
+      <c r="AE2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="AF2" s="40" t="s">
+      <c r="AF2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="AG2" s="38" t="s">
+      <c r="AG2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
     </row>
     <row r="3" spans="1:35" ht="28.5">
-      <c r="A3" s="27"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
       <c r="M3" s="21"/>
-      <c r="N3" s="28"/>
+      <c r="N3" s="26"/>
       <c r="O3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="V3" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W3" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="X3" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Y3" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Z3" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
+        <v>72</v>
+      </c>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
     </row>
     <row r="4" spans="1:35" ht="28.5">
       <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>0</v>
@@ -2221,19 +3582,19 @@
         <v>4</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="M4" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>5</v>
@@ -2242,16 +3603,16 @@
         <v>7</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>28</v>
@@ -2260,28 +3621,28 @@
         <v>8</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Z4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AA4" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="AB4" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AD4" s="9" t="s">
         <v>9</v>
@@ -2307,40 +3668,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H5" s="14">
         <v>42740</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J5" s="23">
         <v>123</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N5" s="6">
         <v>123</v>
@@ -2403,10 +3764,10 @@
         <v>1</v>
       </c>
       <c r="AH5" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AI5" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -2448,6 +3809,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="AH1:AH3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
     <mergeCell ref="AI1:AI3"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="H1:H3"/>
@@ -2462,367 +3830,360 @@
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="L1:L3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="AH1:AH3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="N1">
-    <cfRule type="cellIs" dxfId="75" priority="111" stopIfTrue="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="211" priority="111" stopIfTrue="1" operator="notBetween">
       <formula>6.5</formula>
       <formula>8.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="74" priority="113" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="210" priority="113" stopIfTrue="1" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1">
-    <cfRule type="cellIs" dxfId="73" priority="106" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="209" priority="106" stopIfTrue="1" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="107" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="208" priority="107" stopIfTrue="1" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3 B1 D2:H2 M2 I1:K1">
-    <cfRule type="expression" dxfId="71" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="112" stopIfTrue="1">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1 AH6 AI5">
-    <cfRule type="expression" dxfId="70" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="108" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("K",AC1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="109" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("K",AC1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF1">
-    <cfRule type="expression" dxfId="68" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="110" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("K",AF1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AB2">
-    <cfRule type="cellIs" dxfId="67" priority="89" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="203" priority="89" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N3">
-    <cfRule type="cellIs" dxfId="66" priority="96" stopIfTrue="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="202" priority="96" stopIfTrue="1" operator="notBetween">
       <formula>6.5</formula>
       <formula>8.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P3">
-    <cfRule type="cellIs" dxfId="65" priority="97" stopIfTrue="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="201" priority="97" stopIfTrue="1" operator="notBetween">
       <formula>0.3</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2">
-    <cfRule type="cellIs" dxfId="64" priority="103" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="200" priority="103" stopIfTrue="1" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O3">
-    <cfRule type="cellIs" dxfId="63" priority="105" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="199" priority="105" stopIfTrue="1" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2">
-    <cfRule type="cellIs" dxfId="62" priority="90" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="198" priority="90" stopIfTrue="1" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="91" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="197" priority="91" stopIfTrue="1" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AB2">
-    <cfRule type="cellIs" dxfId="60" priority="104" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="196" priority="104" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="cellIs" dxfId="59" priority="92" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="195" priority="92" stopIfTrue="1" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC2">
-    <cfRule type="expression" dxfId="58" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="93" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("K",AC2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="94" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("K",AC2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2:AF3">
-    <cfRule type="expression" dxfId="56" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("K",AD2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2 Q2:Q3">
-    <cfRule type="cellIs" dxfId="55" priority="98" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="191" priority="98" stopIfTrue="1" operator="greaterThan">
       <formula>250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R3">
-    <cfRule type="cellIs" dxfId="54" priority="99" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="190" priority="99" stopIfTrue="1" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2">
-    <cfRule type="cellIs" dxfId="53" priority="100" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="189" priority="100" stopIfTrue="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2">
-    <cfRule type="cellIs" dxfId="52" priority="101" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="188" priority="101" stopIfTrue="1" operator="greaterThan">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:X2">
-    <cfRule type="cellIs" dxfId="51" priority="102" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="187" priority="102" stopIfTrue="1" operator="greaterThan">
       <formula>0.3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2">
-    <cfRule type="cellIs" dxfId="50" priority="88" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="186" priority="88" stopIfTrue="1" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2">
-    <cfRule type="cellIs" dxfId="49" priority="86" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="185" priority="86" stopIfTrue="1" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="87" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="184" priority="87" stopIfTrue="1" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD5:AD6">
-    <cfRule type="expression" dxfId="47" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="83" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("K",AD5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="84" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("K",AD5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5:AG6">
-    <cfRule type="expression" dxfId="45" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="85" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("K",AE5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="cellIs" dxfId="44" priority="82" stopIfTrue="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="180" priority="82" stopIfTrue="1" operator="notBetween">
       <formula>6.5</formula>
       <formula>8.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="cellIs" dxfId="43" priority="81" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="179" priority="81" stopIfTrue="1" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5:AC6">
-    <cfRule type="cellIs" dxfId="42" priority="80" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="178" priority="80" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5:Z6">
-    <cfRule type="cellIs" dxfId="41" priority="69" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="177" priority="69" stopIfTrue="1" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="cellIs" dxfId="40" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5:R6">
-    <cfRule type="cellIs" dxfId="39" priority="78" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="175" priority="78" stopIfTrue="1" operator="greaterThan">
       <formula>250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S6">
-    <cfRule type="cellIs" dxfId="38" priority="77" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="174" priority="77" stopIfTrue="1" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:T6">
-    <cfRule type="cellIs" dxfId="37" priority="76" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="173" priority="76" stopIfTrue="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6">
-    <cfRule type="cellIs" dxfId="36" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5:U6">
-    <cfRule type="cellIs" dxfId="35" priority="74" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="171" priority="74" stopIfTrue="1" operator="greaterThan">
       <formula>250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5:V6">
-    <cfRule type="cellIs" dxfId="34" priority="73" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="170" priority="73" stopIfTrue="1" operator="greaterThan">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W5:W6">
-    <cfRule type="cellIs" dxfId="33" priority="72" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="169" priority="72" stopIfTrue="1" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X5:X6">
-    <cfRule type="cellIs" dxfId="32" priority="71" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="168" priority="71" stopIfTrue="1" operator="greaterThan">
       <formula>0.3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5:Y6">
-    <cfRule type="cellIs" dxfId="31" priority="70" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="167" priority="70" stopIfTrue="1" operator="greaterThan">
       <formula>0.3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD4">
-    <cfRule type="expression" dxfId="30" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="56" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("K",AD4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="57" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("K",AD4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE4:AG4">
-    <cfRule type="expression" dxfId="28" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="58" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("K",AE4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:N4">
-    <cfRule type="expression" dxfId="27" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="48" stopIfTrue="1">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI5:AI6">
-    <cfRule type="expression" dxfId="26" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="47" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("K",AI5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH5">
-    <cfRule type="expression" dxfId="25" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="43" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("K",AH5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="44" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("K",AH5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI6">
-    <cfRule type="expression" dxfId="23" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="41" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("K",AI6)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="42" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("K",AI6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:AC4">
-    <cfRule type="expression" dxfId="21" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="31" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("K",O4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="32" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("K",O4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="19" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="30" stopIfTrue="1">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="expression" dxfId="18" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="29" stopIfTrue="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:N6 F5 N5 J5:L5 H5">
-    <cfRule type="expression" dxfId="17" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="28" stopIfTrue="1">
       <formula>LEN(TRIM(F5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="cellIs" dxfId="16" priority="26" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="26" stopIfTrue="1" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3">
-    <cfRule type="cellIs" dxfId="15" priority="25" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="151" priority="25" stopIfTrue="1" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3">
-    <cfRule type="cellIs" dxfId="14" priority="24" stopIfTrue="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="150" priority="24" stopIfTrue="1" operator="notBetween">
       <formula>0.3</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3">
-    <cfRule type="cellIs" dxfId="13" priority="23" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="23" stopIfTrue="1" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3">
-    <cfRule type="cellIs" dxfId="12" priority="22" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="148" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3">
-    <cfRule type="cellIs" dxfId="11" priority="21" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="147" priority="21" stopIfTrue="1" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3">
-    <cfRule type="cellIs" dxfId="10" priority="19" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="146" priority="19" stopIfTrue="1" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="20" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="145" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3">
-    <cfRule type="cellIs" dxfId="8" priority="12" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="144" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3">
-    <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="143" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3">
-    <cfRule type="cellIs" dxfId="6" priority="10" stopIfTrue="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="142" priority="10" stopIfTrue="1" operator="notBetween">
       <formula>0.3</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3">
-    <cfRule type="cellIs" dxfId="5" priority="9" stopIfTrue="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="141" priority="9" stopIfTrue="1" operator="notBetween">
       <formula>0.3</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3">
-    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="140" priority="8" stopIfTrue="1" operator="notBetween">
       <formula>0.3</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="2" stopIfTrue="1">
       <formula>LEN(TRIM(G5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
   </conditionalFormatting>
